--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_32.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2956716.281160295</v>
+        <v>2953698.69075936</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>236.0502377560821</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>34.12712969968886</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1.790112058030221</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>120.2570633735997</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>299.8120100236814</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>312.3347633491539</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210775</v>
+        <v>160.4740936944298</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>228.4864079129614</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>44.44625475318956</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>125.8721928563321</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>14.48345164522457</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>106.7359263397709</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>160.0006879278783</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>95.61677879004955</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>50.13491291997161</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.5535868730193</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>276.9863416118691</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>148.9331594064104</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>159.8265587000964</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>220.3818986420423</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>59.04395605284535</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2728,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>51.73613039010466</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>152.3458132526256</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>3.250241677064703</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>130.3416446087993</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>116.6909399905419</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>60.16172393095702</v>
       </c>
       <c r="U40" t="n">
-        <v>255.8134085375531</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.82923535834103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>206.806426921486</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847138</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1791.109440255352</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="X2" t="n">
-        <v>2212.181128500977</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y2" t="n">
-        <v>2177.709280319473</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.4444960005476</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="C4" t="n">
-        <v>473.4444960005476</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D4" t="n">
-        <v>323.3278565882118</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E4" t="n">
-        <v>175.4147630058187</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005476</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.4444960005476</v>
+        <v>259.1560728187103</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1525.746656041711</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1525.577074624423</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177357</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036447</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278602</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017522</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.746656041711</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598707</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064347</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035252</v>
+        <v>927.7879015331887</v>
       </c>
       <c r="C8" t="n">
-        <v>863.1126181035252</v>
+        <v>927.7879015331887</v>
       </c>
       <c r="D8" t="n">
-        <v>863.1126181035252</v>
+        <v>927.7879015331887</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>927.7879015331887</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>516.8019967435812</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>98.83818864176806</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674653</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143459</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167647</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084173</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084173</v>
+        <v>68.57273095695493</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1943.227873734288</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2463.528495470036</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.072954880832</v>
+        <v>670.514436100302</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>670.514436100302</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>670.514436100302</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>670.514436100302</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>523.6244886023916</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>355.4491669222122</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>205.0311584701554</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1113.513998854602</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>1113.513998854602</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="X13" t="n">
-        <v>1113.513998854602</v>
+        <v>670.514436100302</v>
       </c>
       <c r="Y13" t="n">
-        <v>892.7214197110717</v>
+        <v>670.514436100302</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>828.2191568567731</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C16" t="n">
-        <v>659.2829739288662</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D16" t="n">
-        <v>659.2829739288662</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.867621687013</v>
+        <v>1193.590456170226</v>
       </c>
       <c r="X16" t="n">
-        <v>1009.867621687013</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="Y16" t="n">
-        <v>1009.867621687013</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="17">
@@ -5513,16 +5513,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,7 +5549,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5595,19 +5595,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5704,19 +5704,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1219.13208711157</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.447598905683</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="X19" t="n">
-        <v>1498.916270557902</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y19" t="n">
-        <v>1278.123691414372</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,7 +5786,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5832,19 +5832,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1037.48362228133</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1037.48362228133</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>782.7991340754431</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>493.3819640384826</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>265.3924131404652</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,52 +5987,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>570.0299571250974</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>816.7950850315615</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
-        <v>1124.115218311523</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.977845975556</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005285</v>
+        <v>688.7859813545102</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>852.602866836655</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>597.9183786307682</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>597.9183786307682</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X25" t="n">
-        <v>597.9183786307682</v>
+        <v>870.43444618475</v>
       </c>
       <c r="Y25" t="n">
-        <v>597.9183786307682</v>
+        <v>870.43444618475</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,61 +6215,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.824048372323</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>3484.747546292012</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556163</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.69918977486</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>920.3704617344999</v>
+        <v>576.0756695821905</v>
       </c>
       <c r="C28" t="n">
-        <v>860.7301020851612</v>
+        <v>576.0756695821905</v>
       </c>
       <c r="D28" t="n">
-        <v>710.6134626728254</v>
+        <v>576.0756695821905</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>576.0756695821905</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>429.1857220842801</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>261.0104004041007</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6412,22 +6412,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344999</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X28" t="n">
-        <v>920.3704617344999</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y28" t="n">
-        <v>920.3704617344999</v>
+        <v>757.7241344124302</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,22 +6540,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6649,22 +6649,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>1345.031610706765</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>1117.042059808748</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>896.249480665218</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231263</v>
@@ -6765,34 +6765,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>498.9056400965599</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>745.6707680030239</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>395.2468244550147</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="C34" t="n">
-        <v>395.2468244550147</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="D34" t="n">
-        <v>245.1301850426789</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6886,22 +6886,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1167.33803359588</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>912.6535453899926</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W34" t="n">
-        <v>623.236375353032</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X34" t="n">
-        <v>395.2468244550147</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y34" t="n">
-        <v>395.2468244550147</v>
+        <v>268.6754855415407</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,34 +6920,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6959,10 +6959,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7099,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>980.8428919792033</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>726.1584037733164</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>436.7412337363558</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011336</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1771.104817265284</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O39" t="n">
-        <v>2050.644882483981</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="C40" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="D40" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E40" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7336,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7360,22 +7360,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1438.146852445825</v>
       </c>
       <c r="U40" t="n">
-        <v>1240.518888196738</v>
+        <v>1149.018213659383</v>
       </c>
       <c r="V40" t="n">
-        <v>985.8343999908507</v>
+        <v>894.3337254534958</v>
       </c>
       <c r="W40" t="n">
-        <v>696.41722995389</v>
+        <v>604.9165554165352</v>
       </c>
       <c r="X40" t="n">
-        <v>468.4276790558727</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="Y40" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185178</v>
       </c>
     </row>
     <row r="41">
@@ -7391,46 +7391,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7594,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7646,10 +7646,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7658,7 +7658,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7688,10 +7688,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7831,16 +7831,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
         <v>545.9992215018333</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719076</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.64859338270637</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>50.62661940943661</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>159.0121003135246</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>43.65987261462527</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>87.16935584025441</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P39" t="n">
-        <v>73.53204524670059</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>3.683319124501097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>92.13695539594968</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>50.81718385651962</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>236.3880854166194</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>9.251010786708207</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>72.61440165197888</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>7.420262398531406</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>65.85545375653501</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>108.2028650457825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>97.17769797743148</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24853,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24889,22 +24889,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>134.1771850839654</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="32">
@@ -25078,16 +25078,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>143.1837209695045</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25126,13 +25126,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>155.895707789778</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>104.8566210678473</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,10 +25600,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>161.3858371274322</v>
       </c>
       <c r="U40" t="n">
-        <v>30.42394386102424</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,7 +25834,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>192.7554179937538</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26071,19 +26071,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>757213.0894325103</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325103</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325103</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.415891426</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803338</v>
       </c>
       <c r="G2" t="n">
         <v>625646.4955803339</v>
       </c>
       <c r="H2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.495580334</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="J2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="K2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="L2" t="n">
         <v>625646.495580334</v>
       </c>
       <c r="M2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="N2" t="n">
         <v>625646.4955803342</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625646.495580334</v>
       </c>
       <c r="O2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803346</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>1.552851927044685e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.5006543095</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430953</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172353.2851282827</v>
+        <v>-172768.4996377502</v>
       </c>
       <c r="C6" t="n">
-        <v>417614.5940862611</v>
+        <v>417199.3795767945</v>
       </c>
       <c r="D6" t="n">
-        <v>417614.5940862616</v>
+        <v>417199.3795767947</v>
       </c>
       <c r="E6" t="n">
-        <v>-6212.367499587941</v>
+        <v>-6546.536466717604</v>
       </c>
       <c r="F6" t="n">
-        <v>518947.6689773081</v>
+        <v>518613.5000101781</v>
       </c>
       <c r="G6" t="n">
-        <v>518947.6689773077</v>
+        <v>518613.5000101782</v>
       </c>
       <c r="H6" t="n">
-        <v>518947.6689773077</v>
+        <v>518613.5000101783</v>
       </c>
       <c r="I6" t="n">
-        <v>518947.668977308</v>
+        <v>518613.5000101785</v>
       </c>
       <c r="J6" t="n">
-        <v>342524.449784715</v>
+        <v>342190.2808175854</v>
       </c>
       <c r="K6" t="n">
-        <v>518947.6689773081</v>
+        <v>518613.5000101784</v>
       </c>
       <c r="L6" t="n">
-        <v>518947.6689773079</v>
+        <v>518613.5000101783</v>
       </c>
       <c r="M6" t="n">
-        <v>384146.653743471</v>
+        <v>383812.484776341</v>
       </c>
       <c r="N6" t="n">
-        <v>518947.6689773079</v>
+        <v>518613.5000101785</v>
       </c>
       <c r="O6" t="n">
-        <v>518947.6689773081</v>
+        <v>518613.5000101785</v>
       </c>
       <c r="P6" t="n">
-        <v>518947.6689773081</v>
+        <v>518613.5000101789</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26738,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26960,13 +26960,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>15.17392975220721</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>352.1108089563647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>165.4567090405976</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>25.16398464933154</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>65.46088174732614</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>42.34827827152907</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>63.37316471551347</v>
+        <v>126.0489046421612</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>153.4439621593004</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>279.4765180111676</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,7 +27907,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.95978732560521</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>141.6874371965706</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -31279,10 +31279,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31455,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624588</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,10 +35094,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>161.6616261677805</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>299.8843243654609</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35738,13 +35738,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>355.8957474878089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>309.5875389014639</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>354.0842496650915</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>237.7447944281936</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>483.6693559063411</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37558,13 +37558,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P39" t="n">
-        <v>280.6254601782252</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>483.6693559063411</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>483.6693559063411</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2953698.69075936</v>
+        <v>3029228.360424165</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>40.53151821125589</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>236.0502377560821</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>1.790112058030221</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>39.58626266897635</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>315.0391112609548</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>312.3347633491539</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>160.4740936944298</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>44.44625475318956</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>147.5590094146146</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>14.48345164522457</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>205.3644314241349</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>57.56452900498746</v>
       </c>
       <c r="I13" t="n">
-        <v>106.7359263397709</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1658,10 +1660,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>20.81531099655664</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>50.13491291997161</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>76.61248835244371</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>276.9863416118691</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>165.7299368928103</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>122.65197883716</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>159.8265587000964</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>139.4319924052467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>51.73613039010466</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>31.5707067867066</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>3.250241677064703</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>165.2489570623196</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>61.81052995517282</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>116.6909399905419</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>60.16172393095702</v>
+        <v>207.5780900046795</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3904,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>219.9420810345229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4144,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>76.57971109536189</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>183.4653217847138</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.94664591678</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2403.685817956713</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2403.685817956713</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.685817956713</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.685817956713</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y2" t="n">
-        <v>2013.546485980902</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,13 +4427,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>259.1560728187103</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="C4" t="n">
-        <v>257.3478788207</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="D4" t="n">
-        <v>257.3478788207</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4515,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>259.1560728187103</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>259.1560728187103</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>259.1560728187103</v>
+        <v>688.1428602983775</v>
       </c>
       <c r="Y4" t="n">
-        <v>259.1560728187103</v>
+        <v>688.1428602983775</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1894.539591564834</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>1525.577074624423</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X5" t="n">
-        <v>1894.539591564834</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="Y5" t="n">
-        <v>1894.539591564834</v>
+        <v>1524.301830724558</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,46 +4649,46 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4744,28 +4746,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>927.7879015331887</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="C8" t="n">
-        <v>927.7879015331887</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D8" t="n">
-        <v>927.7879015331887</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>927.7879015331887</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>516.8019967435812</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>98.83818864176806</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2063.131624041771</v>
       </c>
       <c r="X8" t="n">
-        <v>1704.527073573122</v>
+        <v>1689.665865780691</v>
       </c>
       <c r="Y8" t="n">
-        <v>1314.38774159731</v>
+        <v>1299.526533804879</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68.57273095695493</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>68.57273095695493</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>68.57273095695493</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>68.57273095695493</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>68.57273095695493</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>68.57273095695493</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628418</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>323.2572191628418</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>68.57273095695493</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W10" t="n">
-        <v>68.57273095695493</v>
+        <v>409.2948950230959</v>
       </c>
       <c r="X10" t="n">
-        <v>68.57273095695493</v>
+        <v>409.2948950230959</v>
       </c>
       <c r="Y10" t="n">
-        <v>68.57273095695493</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>670.514436100302</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="C13" t="n">
-        <v>670.514436100302</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="D13" t="n">
-        <v>670.514436100302</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="E13" t="n">
-        <v>670.514436100302</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="F13" t="n">
-        <v>523.6244886023916</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="G13" t="n">
-        <v>355.4491669222122</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="H13" t="n">
-        <v>205.0311584701554</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W13" t="n">
-        <v>898.5039869983193</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X13" t="n">
-        <v>670.514436100302</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y13" t="n">
-        <v>670.514436100302</v>
+        <v>337.0115451844523</v>
       </c>
     </row>
     <row r="14">
@@ -5276,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.1598612984388</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="C16" t="n">
-        <v>394.223678370532</v>
+        <v>416.5737601579242</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>416.5737601579242</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>268.6606665755311</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>268.6606665755311</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>268.6606665755311</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>118.2426581234744</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W16" t="n">
-        <v>1193.590456170226</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X16" t="n">
-        <v>965.6009052722087</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="Y16" t="n">
-        <v>744.8083261286786</v>
+        <v>585.5099430858311</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5494,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,28 +5533,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>641.8707282937978</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>472.9345453658909</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>472.9345453658909</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>325.0214517834978</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>325.0214517834978</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>325.0214517834978</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>174.6034433314411</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1219.13208711157</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>964.447598905683</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W19" t="n">
-        <v>675.0304288687223</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X19" t="n">
-        <v>447.040877970705</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.040877970705</v>
+        <v>823.5191931240375</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5750,25 +5752,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>2648.155597771317</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>3262.052667528206</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>3569.372800808168</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>3899.2354284722</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>907.806868603556</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>618.3896985665954</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>390.400147668578</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619856</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>3907.324136615208</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>4237.18676427924</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>4516.726829497938</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>688.7859813545102</v>
+        <v>4075.516172206884</v>
       </c>
       <c r="C25" t="n">
-        <v>527.3450129705744</v>
+        <v>3906.579989278977</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705744</v>
+        <v>3756.463349866642</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>3756.463349866642</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="V25" t="n">
-        <v>1387.841167119728</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="W25" t="n">
-        <v>1098.423997082767</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="X25" t="n">
-        <v>870.43444618475</v>
+        <v>4296.308751350414</v>
       </c>
       <c r="Y25" t="n">
-        <v>870.43444618475</v>
+        <v>4075.516172206884</v>
       </c>
     </row>
     <row r="26">
@@ -6218,52 +6220,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>576.0756695821905</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>576.0756695821905</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>576.0756695821905</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>576.0756695821905</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>429.1857220842801</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>261.0104004041007</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6412,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347408</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>985.7136853104475</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>757.7241344124302</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>757.7241344124302</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,31 +6451,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>3919.428864619883</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>3750.492681691976</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>3750.492681691976</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>3602.579588109583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>3602.579588109583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9110074201016</v>
+        <v>4321.869908593653</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>4101.077329450123</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6688,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6725,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6777,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>268.6754855415407</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="C34" t="n">
-        <v>268.6754855415407</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="D34" t="n">
-        <v>268.6754855415407</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>3774.220663094765</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>4693.936434567505</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>4404.807795781063</v>
       </c>
       <c r="V34" t="n">
-        <v>786.0822064765186</v>
+        <v>4150.123307575176</v>
       </c>
       <c r="W34" t="n">
-        <v>496.665036439558</v>
+        <v>4150.123307575176</v>
       </c>
       <c r="X34" t="n">
-        <v>268.6754855415407</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="Y34" t="n">
-        <v>268.6754855415407</v>
+        <v>3922.133756677159</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2338.69837048303</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>208.7516828383384</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>4798.419694271694</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>4798.419694271694</v>
       </c>
       <c r="T37" t="n">
-        <v>1269.971530765645</v>
+        <v>4574.6342790612</v>
       </c>
       <c r="U37" t="n">
-        <v>980.8428919792033</v>
+        <v>4574.6342790612</v>
       </c>
       <c r="V37" t="n">
-        <v>726.1584037733164</v>
+        <v>4319.949790855313</v>
       </c>
       <c r="W37" t="n">
-        <v>436.7412337363558</v>
+        <v>4030.532620818352</v>
       </c>
       <c r="X37" t="n">
-        <v>208.7516828383384</v>
+        <v>4030.532620818352</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.7516828383384</v>
+        <v>3809.740041674822</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>3400.7765748652</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>3948.66648479483</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.546326320615</v>
+        <v>4278.529112458862</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>4558.069177677559</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>4763.091658459769</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>376.9270045185178</v>
+        <v>3759.690041781068</v>
       </c>
       <c r="C40" t="n">
-        <v>376.9270045185178</v>
+        <v>3759.690041781068</v>
       </c>
       <c r="D40" t="n">
-        <v>376.9270045185178</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="E40" t="n">
-        <v>376.9270045185178</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185178</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T40" t="n">
-        <v>1438.146852445825</v>
+        <v>4451.25972454128</v>
       </c>
       <c r="U40" t="n">
-        <v>1149.018213659383</v>
+        <v>4162.131085754838</v>
       </c>
       <c r="V40" t="n">
-        <v>894.3337254534958</v>
+        <v>4162.131085754838</v>
       </c>
       <c r="W40" t="n">
-        <v>604.9165554165352</v>
+        <v>4162.131085754838</v>
       </c>
       <c r="X40" t="n">
-        <v>376.9270045185178</v>
+        <v>4162.131085754838</v>
       </c>
       <c r="Y40" t="n">
-        <v>376.9270045185178</v>
+        <v>3941.338506611308</v>
       </c>
     </row>
     <row r="41">
@@ -7394,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822456</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028616</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7497,13 +7499,13 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1076.832542256765</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7630,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7728,22 +7730,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1110.567913504611</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1110.567913504611</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>855.8834252987245</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>855.8834252987245</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>855.8834252987245</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>855.8834252987245</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>435.9238900028829</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,25 +9005,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>213.2603911806631</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>124.340078086322</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,13 +9719,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>96.03744927814688</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9951,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>230.7151863772039</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,25 +10907,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>242.9997743936041</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11145,16 +11147,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>358.3520020925044</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>91.34929936254866</v>
       </c>
       <c r="I13" t="n">
-        <v>3.683319124501097</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>89.60393446771536</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>236.3880854166194</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>33.80675711182828</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>9.251010786708207</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24145,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>86.40770643101766</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>7.420262398531406</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>86.27766298379041</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>97.17769797743148</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,13 +24654,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>134.922861676671</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>143.1837209695045</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>56.29860399606969</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>48.15382244861998</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>104.8566210678473</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>161.3858371274322</v>
+        <v>13.96947105370975</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25792,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>66.2952713640544</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26032,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>144.9678499630274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>103.0576765518772</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325103</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325103</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325103</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>757213.0894325103</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>757213.0894325103</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914261</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914261</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="F2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="F2" t="n">
-        <v>625646.4955803338</v>
-      </c>
       <c r="G2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="H2" t="n">
         <v>625646.495580334</v>
       </c>
       <c r="I2" t="n">
+        <v>625646.4955803344</v>
+      </c>
+      <c r="J2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625646.4955803344</v>
+      </c>
+      <c r="M2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="L2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625646.4955803342</v>
-      </c>
       <c r="O2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803346</v>
+        <v>625646.4955803341</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26436,10 +26438,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26473,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,31 +26487,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172768.4996377502</v>
+        <v>-172768.4996377499</v>
       </c>
       <c r="C6" t="n">
-        <v>417199.3795767945</v>
+        <v>417199.3795767941</v>
       </c>
       <c r="D6" t="n">
-        <v>417199.3795767947</v>
+        <v>417199.379576794</v>
       </c>
       <c r="E6" t="n">
-        <v>-6546.536466717604</v>
+        <v>-6546.536466717545</v>
       </c>
       <c r="F6" t="n">
-        <v>518613.5000101781</v>
+        <v>518613.5000101785</v>
       </c>
       <c r="G6" t="n">
-        <v>518613.5000101782</v>
+        <v>518613.5000101785</v>
       </c>
       <c r="H6" t="n">
         <v>518613.5000101783</v>
       </c>
       <c r="I6" t="n">
-        <v>518613.5000101785</v>
+        <v>518613.5000101788</v>
       </c>
       <c r="J6" t="n">
-        <v>342190.2808175854</v>
+        <v>342190.2808175855</v>
       </c>
       <c r="K6" t="n">
+        <v>518613.5000101783</v>
+      </c>
+      <c r="L6" t="n">
+        <v>518613.5000101788</v>
+      </c>
+      <c r="M6" t="n">
+        <v>383812.4847763412</v>
+      </c>
+      <c r="N6" t="n">
         <v>518613.5000101784</v>
       </c>
-      <c r="L6" t="n">
-        <v>518613.5000101783</v>
-      </c>
-      <c r="M6" t="n">
-        <v>383812.484776341</v>
-      </c>
-      <c r="N6" t="n">
-        <v>518613.5000101785</v>
-      </c>
       <c r="O6" t="n">
-        <v>518613.5000101785</v>
+        <v>518613.5000101784</v>
       </c>
       <c r="P6" t="n">
-        <v>518613.5000101789</v>
+        <v>518613.5000101784</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,31 +26755,31 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>342.2023234522247</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,13 +27435,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>15.17392975220721</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>165.4567090405976</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1233927200608</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>67.69473040252575</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>42.34827827152907</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>126.0489046421612</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>89.56002855569125</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>279.4765180111676</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>201.6819593027984</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>141.6874371965706</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>13.22022192795987</v>
       </c>
     </row>
     <row r="11">
@@ -29338,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -31519,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,10 +35506,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>495.6240934217712</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>274.9155166742612</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>345.2951542341712</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,10 +36454,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>259.5907485445772</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36917,19 +36919,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,16 +37071,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>287.7526615081896</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>553.4241514440703</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>668.7763791429707</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3029228.360424165</v>
+        <v>3022211.345532454</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.53151821125589</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>69.40548654102113</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>39.58626266897635</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.0391112609548</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>234.0916475089674</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>13.15972490571525</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>147.5590094146146</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y10" t="n">
-        <v>205.3644314241349</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.56452900498746</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>20.81531099655664</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>76.61248835244371</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>201.6473422926462</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>165.7299368928103</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -2529,7 +2529,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>147.3604984678194</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>139.4319924052467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>31.5707067867066</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>221.9323490168575</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>165.2489570623196</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>220.3866928557993</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>61.81052995517282</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>207.5780900046795</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>246.8379925112675</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>219.9420810345229</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>115.9114413896595</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>76.57971109536189</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>64.53455860556538</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.4755035807</v>
+        <v>1661.975310878425</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1293.012793938013</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>934.7470953312629</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>548.9588427330186</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>137.9729379434111</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>124.049533882002</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>124.049533882002</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.555763042629</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y2" t="n">
-        <v>1369.416431066817</v>
+        <v>2048.575150942547</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>506.4943954681378</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>506.4943954681378</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>506.4943954681378</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>688.1428602983775</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>688.1428602983775</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>450.8106681794958</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>450.8106681794958</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>450.8106681794958</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>443.8651674302924</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4603,16 +4603,16 @@
         <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.44116270037</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>1914.44116270037</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y5" t="n">
-        <v>1524.301830724558</v>
+        <v>819.7731851199076</v>
       </c>
     </row>
     <row r="6">
@@ -4649,10 +4649,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1299.526533804879</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="C8" t="n">
-        <v>1299.526533804879</v>
+        <v>825.2129885066827</v>
       </c>
       <c r="D8" t="n">
-        <v>941.2608351981287</v>
+        <v>466.9472898999322</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>81.15903730168793</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500978</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500978</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2063.131624041771</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1689.665865780691</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1299.526533804879</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>409.2948950230959</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>409.2948950230959</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,28 +5026,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>155.3630803542126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>155.3630803542126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>155.3630803542126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>155.3630803542126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>155.3630803542126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>155.3630803542126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5229,22 +5229,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>785.7936752259998</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>557.8041243279824</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>337.0115451844523</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5269,16 +5269,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5287,22 +5287,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5311,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>585.5099430858311</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>416.5737601579242</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>416.5737601579242</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>268.6606665755311</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>268.6606665755311</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>268.6606665755311</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>118.2426581234744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227918</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>874.9271131227918</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>585.5099430858311</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>585.5099430858311</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>585.5099430858311</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5497,40 +5497,40 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>641.8707282937978</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C19" t="n">
-        <v>472.9345453658909</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D19" t="n">
-        <v>472.9345453658909</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E19" t="n">
-        <v>325.0214517834978</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F19" t="n">
-        <v>325.0214517834978</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G19" t="n">
-        <v>325.0214517834978</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>174.6034433314411</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>816.7621830075352</v>
       </c>
       <c r="W19" t="n">
-        <v>1044.311772267568</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="X19" t="n">
-        <v>1044.311772267568</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y19" t="n">
-        <v>823.5191931240375</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5752,16 +5752,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5794,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2648.155597771317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>3262.052667528206</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3569.372800808168</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N21" t="n">
-        <v>3899.2354284722</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774859</v>
+        <v>2298.964529638816</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>2503.987010421026</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.7516828383384</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7516828383384</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>907.806868603556</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>618.3896985665954</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>390.400147668578</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>390.400147668578</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3138.955990222747</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M24" t="n">
-        <v>3907.324136615208</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N24" t="n">
-        <v>4237.18676427924</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>4516.726829497938</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4075.516172206884</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C25" t="n">
-        <v>3906.579989278977</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D25" t="n">
-        <v>3756.463349866642</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E25" t="n">
-        <v>3756.463349866642</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>3609.573402368731</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368731</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.14914771935</v>
+        <v>1150.147272122122</v>
       </c>
       <c r="U25" t="n">
-        <v>4437.14914771935</v>
+        <v>1150.147272122122</v>
       </c>
       <c r="V25" t="n">
-        <v>4437.14914771935</v>
+        <v>1150.147272122122</v>
       </c>
       <c r="W25" t="n">
-        <v>4437.14914771935</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="X25" t="n">
-        <v>4296.308751350414</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="Y25" t="n">
-        <v>4075.516172206884</v>
+        <v>860.7301020851612</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,34 +6223,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231263</v>
@@ -6268,10 +6268,10 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6445,16 +6445,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3919.428864619883</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3750.492681691976</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3750.492681691976</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3602.579588109583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3602.579588109583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4549.85945949167</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>4549.85945949167</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V31" t="n">
-        <v>4549.85945949167</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W31" t="n">
-        <v>4549.85945949167</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X31" t="n">
-        <v>4321.869908593653</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y31" t="n">
-        <v>4101.077329450123</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6691,22 +6691,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3922.133756677159</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C34" t="n">
-        <v>3922.133756677159</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D34" t="n">
-        <v>3922.133756677159</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>3774.220663094765</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596855</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4693.936434567505</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4404.807795781063</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>4150.123307575176</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>4150.123307575176</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X34" t="n">
-        <v>3922.133756677159</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="Y34" t="n">
-        <v>3922.133756677159</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="35">
@@ -6925,46 +6925,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1818.397748747283</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2338.69837048303</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3628.091576844583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4798.419694271694</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4798.419694271694</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4574.6342790612</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4574.6342790612</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>4319.949790855313</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>4030.532620818352</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>4030.532620818352</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>3809.740041674822</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,28 +7198,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>2786.879505108311</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>3400.7765748652</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>3948.66648479483</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>4278.529112458862</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>4558.069177677559</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>4763.091658459769</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3759.690041781068</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C40" t="n">
-        <v>3759.690041781068</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4451.25972454128</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>4162.131085754838</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>4162.131085754838</v>
+        <v>536.7509009095822</v>
       </c>
       <c r="W40" t="n">
-        <v>4162.131085754838</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X40" t="n">
-        <v>4162.131085754838</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y40" t="n">
-        <v>3941.338506611308</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822456</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028616</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.1480540508779</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C43" t="n">
-        <v>822.1480540508779</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>1076.832542256765</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V43" t="n">
-        <v>822.1480540508779</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="W43" t="n">
-        <v>822.1480540508779</v>
+        <v>585.5099430858318</v>
       </c>
       <c r="X43" t="n">
-        <v>822.1480540508779</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.1480540508779</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>674.2349604684848</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C46" t="n">
-        <v>674.2349604684848</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D46" t="n">
-        <v>674.2349604684848</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1110.567913504611</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1110.567913504611</v>
+        <v>1010.024422429056</v>
       </c>
       <c r="V46" t="n">
-        <v>855.8834252987245</v>
+        <v>755.3399342231696</v>
       </c>
       <c r="W46" t="n">
-        <v>855.8834252987245</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="X46" t="n">
-        <v>855.8834252987245</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y46" t="n">
-        <v>855.8834252987245</v>
+        <v>245.130185042679</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028829</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>213.2603911806631</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>124.340078086322</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>22.04402060665542</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>230.7151863772039</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
-        <v>199.7396287231155</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>242.9997743936041</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>29.47535963978262</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172073</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11378,28 +11378,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>358.3520020925044</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>91.34929936254866</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>89.60393446771536</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>33.80675711182828</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>84.59001010593119</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>86.40770643101766</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>74.18706259056981</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>86.27766298379041</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>134.922861676671</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>64.30500338171984</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>56.29860399606969</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>5.322962533237813</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>48.15382244861998</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>13.96947105370975</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>5.299650812560515</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>66.2952713640544</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>109.7982139993777</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>144.9678499630274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>221.7027937930119</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>757213.0894325103</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>757213.0894325103</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325103</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914261</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914261</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="H2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>625646.4955803344</v>
+      </c>
+      <c r="K2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="H2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803344</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="O2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="K2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625646.4955803344</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625646.4955803341</v>
-      </c>
       <c r="P2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26441,7 +26441,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143916</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26450,16 +26450,16 @@
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172768.4996377499</v>
+        <v>-172768.4996377504</v>
       </c>
       <c r="C6" t="n">
-        <v>417199.3795767941</v>
+        <v>417199.3795767946</v>
       </c>
       <c r="D6" t="n">
-        <v>417199.379576794</v>
+        <v>417199.3795767945</v>
       </c>
       <c r="E6" t="n">
-        <v>-6546.536466717545</v>
+        <v>-7521.127726439522</v>
       </c>
       <c r="F6" t="n">
-        <v>518613.5000101785</v>
+        <v>517638.908750457</v>
       </c>
       <c r="G6" t="n">
-        <v>518613.5000101785</v>
+        <v>517638.908750457</v>
       </c>
       <c r="H6" t="n">
-        <v>518613.5000101783</v>
+        <v>517638.9087504568</v>
       </c>
       <c r="I6" t="n">
-        <v>518613.5000101788</v>
+        <v>517638.9087504569</v>
       </c>
       <c r="J6" t="n">
-        <v>342190.2808175855</v>
+        <v>341215.6895578642</v>
       </c>
       <c r="K6" t="n">
-        <v>518613.5000101783</v>
+        <v>517638.9087504569</v>
       </c>
       <c r="L6" t="n">
-        <v>518613.5000101788</v>
+        <v>517638.9087504568</v>
       </c>
       <c r="M6" t="n">
-        <v>383812.4847763412</v>
+        <v>382837.8935166197</v>
       </c>
       <c r="N6" t="n">
-        <v>518613.5000101784</v>
+        <v>517638.9087504569</v>
       </c>
       <c r="O6" t="n">
-        <v>518613.5000101784</v>
+        <v>517638.9087504569</v>
       </c>
       <c r="P6" t="n">
-        <v>518613.5000101784</v>
+        <v>517638.9087504569</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>342.2023234522247</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>82.52582970384012</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>186.1233927200608</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67.69473040252575</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>179.6925225118276</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>89.56002855569125</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>393.7163208359962</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>201.6819593027984</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.22022192795987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35506,10 +35506,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>495.6240934217712</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>274.9155166742612</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>110.0570533917296</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>259.5907485445772</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>437.8086013087286</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081124</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
-        <v>287.7526615081896</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>553.4241514440703</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415071</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>668.7763791429707</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3022211.345532454</v>
+        <v>3027150.608381486</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>69.40548654102113</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>79.44408807900602</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>234.0916475089674</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>17.05324242164994</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.03250833502995</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>32.94454038126324</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>13.15972490571525</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>99.66075074687637</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896926</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>206.806426921486</v>
+        <v>34.26584747916387</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002176</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>201.6473422926462</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113185</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2326,10 +2326,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>147.3604984678194</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532057</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896918</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113191</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>34.55149341717807</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>221.9323490168575</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>220.3866928557993</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>186.1455587128469</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>246.8379925112675</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>79.47420870022107</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>115.9114413896595</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>64.53455860556538</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>157.2425576766696</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.975310878425</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C2" t="n">
-        <v>1293.012793938013</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D2" t="n">
-        <v>934.7470953312629</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>548.9588427330186</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>137.9729379434111</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>124.049533882002</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>124.049533882002</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2385.696360247728</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2131.93457488582</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>2131.93457488582</v>
       </c>
       <c r="W2" t="n">
-        <v>2048.575150942547</v>
+        <v>2131.93457488582</v>
       </c>
       <c r="X2" t="n">
-        <v>2048.575150942547</v>
+        <v>2131.93457488582</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.575150942547</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="3">
@@ -4412,28 +4412,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4467,16 +4467,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>819.7731851199076</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C5" t="n">
-        <v>450.8106681794958</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D5" t="n">
-        <v>450.8106681794958</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>450.8106681794958</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>443.8651674302924</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2448.71741646728</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2117.654529123709</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>1764.885873853595</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>1391.420115592515</v>
       </c>
       <c r="Y5" t="n">
-        <v>819.7731851199076</v>
+        <v>1001.280783616703</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>686.6820060902423</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>517.7458231623355</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447094</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066827</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999322</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>81.15903730168793</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332394</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332394</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970485</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1936.146930626915</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511216</v>
+        <v>1583.3782753568</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036448</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5062,7 +5062,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5080,13 +5080,13 @@
         <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5129,7 +5129,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5138,10 +5138,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>1240.518888196738</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>985.8343999908507</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>696.41722995389</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="14">
@@ -5266,43 +5266,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5366,7 +5366,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,22 +5503,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1071.446671213422</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>816.7621830075352</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>527.3450129705745</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805479</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M21" t="n">
-        <v>1689.561836756086</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>2019.424464420119</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2298.964529638816</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2503.987010421026</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
         <v>904.3190116155888</v>
@@ -5986,55 +5986,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1150.147272122122</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1150.147272122122</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>1150.147272122122</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>860.7301020851612</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y25" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,7 +6223,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6241,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805484</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>1050.956765431391</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V31" t="n">
-        <v>796.2722772255036</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W31" t="n">
-        <v>506.8551071885429</v>
+        <v>731.31772835508</v>
       </c>
       <c r="X31" t="n">
-        <v>278.8655562905255</v>
+        <v>503.3281774570627</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>282.5355983135325</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6709,19 +6709,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,25 +6782,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>584.4452354807079</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>986.8862794544777</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>766.0937003109476</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,10 +6952,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6964,25 +6964,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E37" t="n">
         <v>97.21709146028587</v>
@@ -7095,7 +7095,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
@@ -7104,7 +7104,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1310.890453676239</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1087.105038465745</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1087.105038465745</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>1087.105038465745</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>797.6878684287846</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>797.6878684287846</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,19 +7241,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
         <v>674.428562457161</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
@@ -7368,16 +7368,16 @@
         <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>536.7509009095822</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W40" t="n">
-        <v>247.3337308726216</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X40" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,19 +7478,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
         <v>674.428562457161</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.6350999123426</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C43" t="n">
-        <v>247.6350999123426</v>
+        <v>324.384017443268</v>
       </c>
       <c r="D43" t="n">
-        <v>247.6350999123426</v>
+        <v>324.384017443268</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>874.9271131227924</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V43" t="n">
-        <v>874.9271131227924</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W43" t="n">
-        <v>585.5099430858318</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X43" t="n">
-        <v>468.4276790558727</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.6350999123426</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="44">
@@ -7627,34 +7627,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7669,10 +7669,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1010.024422429056</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>755.3399342231696</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>465.9227641862091</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>465.9227641862091</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>245.130185042679</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516213</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>283.6093329825486</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.04402060665542</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9886,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10357,10 +10357,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172073</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>79.43092547709136</v>
+        <v>251.9715049194135</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338567</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>84.59001010593119</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24417,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>74.18706259056981</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>145.2804867647592</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>64.30500338171984</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>5.322962533237813</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>11.77525127075634</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>5.299650812560515</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>66.9597539463481</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>109.7982139993777</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>221.7027937930119</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
     </row>
   </sheetData>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>757213.0894325103</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>757213.0894325103</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
         <v>625646.495580334</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803344</v>
       </c>
       <c r="G2" t="n">
         <v>625646.4955803343</v>
       </c>
       <c r="H2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="J2" t="n">
+        <v>625646.4955803346</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="L2" t="n">
         <v>625646.4955803344</v>
       </c>
-      <c r="K2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625646.4955803341</v>
-      </c>
       <c r="M2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.495580334</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803344</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.495580334</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.495580334</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.967965428979369e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.213760608418996e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26435,31 +26435,31 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
+        <v>15045.66962143903</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15045.66962143909</v>
+      </c>
+      <c r="M4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>15045.66962143909</v>
+      </c>
+      <c r="O4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="M4" t="n">
-        <v>15045.66962143905</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15045.66962143909</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172768.4996377504</v>
+        <v>-172768.49963775</v>
       </c>
       <c r="C6" t="n">
-        <v>417199.3795767946</v>
+        <v>417199.3795767945</v>
       </c>
       <c r="D6" t="n">
-        <v>417199.3795767945</v>
+        <v>417199.379576794</v>
       </c>
       <c r="E6" t="n">
-        <v>-7521.127726439522</v>
+        <v>-6643.995592689637</v>
       </c>
       <c r="F6" t="n">
-        <v>517638.908750457</v>
+        <v>518516.0408842066</v>
       </c>
       <c r="G6" t="n">
-        <v>517638.908750457</v>
+        <v>518516.0408842065</v>
       </c>
       <c r="H6" t="n">
-        <v>517638.9087504568</v>
+        <v>518516.0408842061</v>
       </c>
       <c r="I6" t="n">
-        <v>517638.9087504569</v>
+        <v>518516.0408842064</v>
       </c>
       <c r="J6" t="n">
-        <v>341215.6895578642</v>
+        <v>342092.8216916138</v>
       </c>
       <c r="K6" t="n">
-        <v>517638.9087504569</v>
+        <v>518516.0408842064</v>
       </c>
       <c r="L6" t="n">
-        <v>517638.9087504568</v>
+        <v>518516.0408842066</v>
       </c>
       <c r="M6" t="n">
-        <v>382837.8935166197</v>
+        <v>383715.0256503689</v>
       </c>
       <c r="N6" t="n">
-        <v>517638.9087504569</v>
+        <v>518516.0408842066</v>
       </c>
       <c r="O6" t="n">
-        <v>517638.9087504569</v>
+        <v>518516.0408842061</v>
       </c>
       <c r="P6" t="n">
-        <v>517638.9087504569</v>
+        <v>518516.0408842062</v>
       </c>
     </row>
   </sheetData>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.267200760523745e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26743,34 +26743,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541004</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26807,16 +26807,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.267200760523745e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>82.52582970384012</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>137.0042322786518</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>179.6925225118276</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>234.1709250866394</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.7994718469074</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>349.7893012822174</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>393.7163208359962</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>186.6211234951014</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-7.705939176177453e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279154</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>594.0337100330149</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.0570533917296</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
         <v>803.580930408112</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.580930408112</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
